--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1299622.438683158</v>
+        <v>1295866.04897337</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33372278.24812807</v>
+        <v>33372278.24812806</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5915902.834835913</v>
+        <v>5915902.834835909</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>408.9851551450806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>420.7096284534329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>418.4992673423218</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>416.3855777583097</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>345.9393609305335</v>
       </c>
       <c r="W11" t="n">
-        <v>387.7554804080989</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y11" t="n">
-        <v>237.6547065325504</v>
+        <v>321.3640746901669</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.8490128968191</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C13" t="n">
-        <v>157.7846747666292</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D13" t="n">
-        <v>151.1677932355144</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F13" t="n">
-        <v>161.8885638628832</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G13" t="n">
-        <v>150.0423489486287</v>
+        <v>28.69636260685433</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.9308534758297</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>226.7733322206493</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U13" t="n">
-        <v>262.5513459967664</v>
+        <v>262.5513459967662</v>
       </c>
       <c r="V13" t="n">
-        <v>174.7666976724824</v>
+        <v>271.0345334132956</v>
       </c>
       <c r="W13" t="n">
-        <v>256.2547207345933</v>
+        <v>256.2547207345931</v>
       </c>
       <c r="X13" t="n">
-        <v>229.8864174849436</v>
+        <v>229.8864174849434</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280.1462702495979</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.6828605826722</v>
       </c>
       <c r="D14" t="n">
-        <v>418.4992673423218</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>416.3855777583095</v>
       </c>
       <c r="F14" t="n">
-        <v>410.5373356599063</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>387.7554804080989</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>401.8996191515043</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y14" t="n">
-        <v>391.151842828365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>176.8490128968191</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C16" t="n">
-        <v>157.7846747666292</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D16" t="n">
-        <v>49.93330236653793</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E16" t="n">
-        <v>155.009004076792</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F16" t="n">
-        <v>161.8885638628832</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>28.69636260685477</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.9308534758297</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>226.7733322206493</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U16" t="n">
-        <v>262.5513459967664</v>
+        <v>262.5513459967662</v>
       </c>
       <c r="V16" t="n">
-        <v>271.0345334132958</v>
+        <v>271.0345334132956</v>
       </c>
       <c r="W16" t="n">
-        <v>256.2547207345933</v>
+        <v>256.2547207345931</v>
       </c>
       <c r="X16" t="n">
-        <v>229.8864174849436</v>
+        <v>229.8864174849434</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>408.9851551450806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>119.7288152488259</v>
+        <v>384.4933672493529</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G17" t="n">
-        <v>382.4562447723395</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H17" t="n">
-        <v>253.9729163065506</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>243.4285649287229</v>
       </c>
       <c r="V17" t="n">
-        <v>345.9393609305337</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>387.7554804080989</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>391.151842828365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.8490128968191</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C19" t="n">
-        <v>157.7846747666292</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D19" t="n">
-        <v>151.1677932355144</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>16.20781405893372</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G19" t="n">
-        <v>150.0423489486287</v>
+        <v>86.9731060638323</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I19" t="n">
-        <v>49.41291406313636</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.9308534758297</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T19" t="n">
-        <v>226.7733322206493</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U19" t="n">
-        <v>262.5513459967664</v>
+        <v>262.5513459967662</v>
       </c>
       <c r="V19" t="n">
-        <v>271.0345334132958</v>
+        <v>271.0345334132956</v>
       </c>
       <c r="W19" t="n">
-        <v>256.2547207345933</v>
+        <v>256.2547207345931</v>
       </c>
       <c r="X19" t="n">
-        <v>229.8864174849436</v>
+        <v>229.8864174849434</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>351.6348386985769</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>416.3855777583095</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>382.4562447723395</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H20" t="n">
-        <v>253.9729163065506</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>27.01028645237276</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U20" t="n">
-        <v>243.4285649287231</v>
+        <v>243.4285649287229</v>
       </c>
       <c r="V20" t="n">
-        <v>345.9393609305337</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>387.7554804080989</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>285.2854054651834</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>391.151842828365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.8490128968191</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C22" t="n">
-        <v>157.7846747666292</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D22" t="n">
-        <v>151.1677932355144</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>155.009004076792</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F22" t="n">
-        <v>60.65407299390673</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>49.93330236653947</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>129.9308534758297</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T22" t="n">
-        <v>226.7733322206493</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U22" t="n">
-        <v>262.5513459967664</v>
+        <v>262.5513459967662</v>
       </c>
       <c r="V22" t="n">
-        <v>271.0345334132958</v>
+        <v>271.0345334132956</v>
       </c>
       <c r="W22" t="n">
-        <v>256.2547207345933</v>
+        <v>256.2547207345931</v>
       </c>
       <c r="X22" t="n">
-        <v>229.8864174849436</v>
+        <v>229.8864174849434</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>408.9851551450806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>420.7096284534329</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D23" t="n">
-        <v>418.4992673423218</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>416.3855777583095</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>27.01028645237292</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>196.6021193806008</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>243.4285649287231</v>
+        <v>243.4285649287229</v>
       </c>
       <c r="V23" t="n">
-        <v>345.9393609305337</v>
+        <v>345.9393609305335</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>243.85685759864</v>
       </c>
       <c r="X23" t="n">
-        <v>256.3225444386046</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y23" t="n">
-        <v>391.151842828365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.8490128968191</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7846747666292</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D25" t="n">
-        <v>151.1677932355144</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E25" t="n">
-        <v>155.009004076792</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F25" t="n">
-        <v>161.8885638628832</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G25" t="n">
-        <v>150.0423489486287</v>
+        <v>150.0423489486285</v>
       </c>
       <c r="H25" t="n">
-        <v>117.9692003794992</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I25" t="n">
-        <v>49.41291406313636</v>
+        <v>49.4129140631362</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>129.9308534758297</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T25" t="n">
-        <v>226.7733322206493</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U25" t="n">
-        <v>262.5513459967664</v>
+        <v>262.5513459967662</v>
       </c>
       <c r="V25" t="n">
-        <v>271.0345334132958</v>
+        <v>271.0345334132956</v>
       </c>
       <c r="W25" t="n">
-        <v>256.2547207345933</v>
+        <v>256.2547207345931</v>
       </c>
       <c r="X25" t="n">
-        <v>229.8864174849436</v>
+        <v>229.8864174849434</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>124.4980896691142</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>15.20782930017716</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836058</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
         <v>131.0206200144773</v>
@@ -2766,10 +2766,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>239.8247518556271</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317446</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>57.41705274269707</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2806,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>166.7888486026602</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2967,10 +2967,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556271</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317446</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3034,7 +3034,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3043,10 +3043,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>128.8614260558751</v>
+        <v>363.2391018476872</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117691</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>142.9822731108072</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3271,19 +3271,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>154.2347860968863</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>306.180172459208</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>60.07073011995501</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>74.42811009354939</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3520,7 +3520,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>246.5908803063701</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>158.9612974735631</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>62.0329415750737</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>124.9554984777218</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3723,10 +3723,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>213.7416271160864</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>126.0844190686973</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>54.31661462074995</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>74.42811009354939</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>143.7721879877249</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
     </row>
     <row r="45">
@@ -4137,19 +4137,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>61.19617440684117</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>55.9668410237014</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1315.483797563161</v>
+        <v>690.0642900124798</v>
       </c>
       <c r="C11" t="n">
-        <v>890.524576903128</v>
+        <v>690.0642900124798</v>
       </c>
       <c r="D11" t="n">
-        <v>467.798044234116</v>
+        <v>690.0642900124798</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895474</v>
+        <v>690.0642900124798</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895474</v>
+        <v>690.0642900124798</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
@@ -5059,7 +5059,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5071,22 +5071,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1812.305880163763</v>
       </c>
       <c r="W11" t="n">
-        <v>1968.655375015314</v>
+        <v>1420.63367773134</v>
       </c>
       <c r="X11" t="n">
-        <v>1968.655375015314</v>
+        <v>1014.674466467194</v>
       </c>
       <c r="Y11" t="n">
-        <v>1728.600115891526</v>
+        <v>690.0642900124798</v>
       </c>
     </row>
     <row r="12">
@@ -5102,19 +5102,19 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043086</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.3614816637584</v>
+        <v>708.3645298809474</v>
       </c>
       <c r="C13" t="n">
-        <v>514.9830223035268</v>
+        <v>548.986070520716</v>
       </c>
       <c r="D13" t="n">
-        <v>362.288281661593</v>
+        <v>396.2913298787823</v>
       </c>
       <c r="E13" t="n">
-        <v>362.288281661593</v>
+        <v>239.7165782860633</v>
       </c>
       <c r="F13" t="n">
-        <v>198.7644797798928</v>
+        <v>76.19277640436314</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
         <v>106.1122152511379</v>
@@ -5208,16 +5208,16 @@
         <v>744.992999204955</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.17407462327</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N13" t="n">
-        <v>1708.047382044527</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O13" t="n">
-        <v>1825.813263392288</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2229.084291108515</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>2000.020319168465</v>
+        <v>2131.263605507687</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.816939373752</v>
+        <v>1866.060225712974</v>
       </c>
       <c r="V13" t="n">
-        <v>1558.284921522759</v>
+        <v>1592.287969739948</v>
       </c>
       <c r="W13" t="n">
-        <v>1299.441769265594</v>
+        <v>1333.444817482783</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.23326675555</v>
+        <v>1101.236314972739</v>
       </c>
       <c r="Y13" t="n">
-        <v>852.996848226202</v>
+        <v>886.9998964433909</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>884.6172616522156</v>
+        <v>1541.252047855227</v>
       </c>
       <c r="C14" t="n">
-        <v>884.6172616522156</v>
+        <v>1305.208754337376</v>
       </c>
       <c r="D14" t="n">
-        <v>461.8907289832035</v>
+        <v>882.4822216683644</v>
       </c>
       <c r="E14" t="n">
-        <v>461.8907289832035</v>
+        <v>461.8907289832034</v>
       </c>
       <c r="F14" t="n">
         <v>47.20655154895474</v>
@@ -5275,13 +5275,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
         <v>805.4408022867025</v>
@@ -5317,13 +5317,13 @@
         <v>2360.327577447737</v>
       </c>
       <c r="W14" t="n">
-        <v>1968.655375015314</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X14" t="n">
-        <v>1562.696163751168</v>
+        <v>1954.368366183591</v>
       </c>
       <c r="Y14" t="n">
-        <v>1167.593292207365</v>
+        <v>1954.368366183591</v>
       </c>
     </row>
     <row r="15">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>577.1212435417249</v>
+        <v>708.3645298809479</v>
       </c>
       <c r="C16" t="n">
-        <v>417.7427841814933</v>
+        <v>548.9860705207165</v>
       </c>
       <c r="D16" t="n">
-        <v>367.3051050233742</v>
+        <v>396.2913298787828</v>
       </c>
       <c r="E16" t="n">
-        <v>210.730353430655</v>
+        <v>239.7165782860637</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>76.1927764043636</v>
       </c>
       <c r="G16" t="n">
         <v>47.20655154895474</v>
@@ -5436,22 +5436,22 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L16" t="n">
-        <v>326.783117436994</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M16" t="n">
-        <v>910.9641928553089</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N16" t="n">
-        <v>1480.721907816843</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O16" t="n">
-        <v>2018.157038390386</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
         <v>2274.089213540314</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2229.084291108515</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>2000.020319168465</v>
+        <v>2131.263605507687</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.816939373752</v>
+        <v>1866.060225712974</v>
       </c>
       <c r="V16" t="n">
-        <v>1461.044683400726</v>
+        <v>1592.287969739948</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.201531143561</v>
+        <v>1333.444817482783</v>
       </c>
       <c r="X16" t="n">
-        <v>969.9930286335167</v>
+        <v>1101.236314972739</v>
       </c>
       <c r="Y16" t="n">
-        <v>755.7566101041684</v>
+        <v>886.9998964433913</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>811.0024872335164</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="C17" t="n">
-        <v>690.0642900124801</v>
+        <v>1527.47500011574</v>
       </c>
       <c r="D17" t="n">
-        <v>690.0642900124801</v>
+        <v>1104.748467446728</v>
       </c>
       <c r="E17" t="n">
-        <v>690.0642900124801</v>
+        <v>1104.748467446728</v>
       </c>
       <c r="F17" t="n">
-        <v>690.0642900124801</v>
+        <v>690.0642900124798</v>
       </c>
       <c r="G17" t="n">
-        <v>303.7448508485008</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
         <v>1463.013992431967</v>
@@ -5533,7 +5533,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5545,22 +5545,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2161.739578073393</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="V17" t="n">
-        <v>2010.893879538107</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="W17" t="n">
-        <v>1619.221677105684</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="X17" t="n">
-        <v>1619.221677105684</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="Y17" t="n">
-        <v>1224.118805561881</v>
+        <v>1915.85213875145</v>
       </c>
     </row>
     <row r="18">
@@ -5573,16 +5573,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
         <v>79.1492015823585</v>
@@ -5591,19 +5591,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>577.1212435417249</v>
+        <v>577.121243541726</v>
       </c>
       <c r="C19" t="n">
-        <v>417.7427841814933</v>
+        <v>417.7427841814946</v>
       </c>
       <c r="D19" t="n">
-        <v>265.0480435395596</v>
+        <v>417.7427841814946</v>
       </c>
       <c r="E19" t="n">
-        <v>248.6765141871012</v>
+        <v>417.7427841814946</v>
       </c>
       <c r="F19" t="n">
-        <v>248.6765141871012</v>
+        <v>254.2189822997945</v>
       </c>
       <c r="G19" t="n">
-        <v>97.11858595616319</v>
+        <v>166.3673600130952</v>
       </c>
       <c r="H19" t="n">
-        <v>97.11858595616319</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895474</v>
@@ -5676,22 +5676,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M19" t="n">
-        <v>1412.355695376305</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.854607180195</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5715,10 +5715,10 @@
         <v>1202.201531143561</v>
       </c>
       <c r="X19" t="n">
-        <v>969.9930286335167</v>
+        <v>969.9930286335175</v>
       </c>
       <c r="Y19" t="n">
-        <v>755.7566101041684</v>
+        <v>755.7566101041695</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>690.0642900124801</v>
+        <v>1888.569021122791</v>
       </c>
       <c r="C20" t="n">
-        <v>690.0642900124801</v>
+        <v>1533.382315366653</v>
       </c>
       <c r="D20" t="n">
-        <v>690.0642900124801</v>
+        <v>1110.655782697641</v>
       </c>
       <c r="E20" t="n">
-        <v>690.0642900124801</v>
+        <v>690.0642900124798</v>
       </c>
       <c r="F20" t="n">
-        <v>690.0642900124801</v>
+        <v>690.0642900124798</v>
       </c>
       <c r="G20" t="n">
-        <v>303.7448508485008</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K20" t="n">
         <v>512.3249274228019</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2134.456460444733</v>
       </c>
       <c r="U20" t="n">
-        <v>2114.440138125794</v>
+        <v>1888.569021122791</v>
       </c>
       <c r="V20" t="n">
-        <v>1765.006440216164</v>
+        <v>1888.569021122791</v>
       </c>
       <c r="W20" t="n">
-        <v>1373.334237783741</v>
+        <v>1888.569021122791</v>
       </c>
       <c r="X20" t="n">
-        <v>1085.167161556283</v>
+        <v>1888.569021122791</v>
       </c>
       <c r="Y20" t="n">
-        <v>690.0642900124801</v>
+        <v>1888.569021122791</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235873</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
         <v>47.20655154895474</v>
@@ -5870,13 +5870,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.1212435417249</v>
+        <v>577.121243541726</v>
       </c>
       <c r="C22" t="n">
-        <v>417.7427841814933</v>
+        <v>417.7427841814946</v>
       </c>
       <c r="D22" t="n">
-        <v>265.0480435395596</v>
+        <v>417.7427841814946</v>
       </c>
       <c r="E22" t="n">
-        <v>108.4732919468403</v>
+        <v>261.1680325887755</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895474</v>
+        <v>97.64423070707542</v>
       </c>
       <c r="G22" t="n">
         <v>47.20655154895474</v>
@@ -5913,22 +5913,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>295.9524490360518</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L22" t="n">
-        <v>419.8232506543497</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M22" t="n">
-        <v>550.4276429928792</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N22" t="n">
-        <v>1120.185357954413</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527957</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2205.505779732759</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5952,10 +5952,10 @@
         <v>1202.201531143561</v>
       </c>
       <c r="X22" t="n">
-        <v>969.9930286335167</v>
+        <v>969.9930286335175</v>
       </c>
       <c r="Y22" t="n">
-        <v>755.7566101041684</v>
+        <v>755.7566101041695</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>903.5226688083285</v>
+        <v>1544.245367288003</v>
       </c>
       <c r="C23" t="n">
-        <v>478.5634481482953</v>
+        <v>1119.28614662797</v>
       </c>
       <c r="D23" t="n">
-        <v>55.83691547928336</v>
+        <v>1119.28614662797</v>
       </c>
       <c r="E23" t="n">
-        <v>55.83691547928336</v>
+        <v>698.6946539428084</v>
       </c>
       <c r="F23" t="n">
-        <v>55.83691547928336</v>
+        <v>698.6946539428084</v>
       </c>
       <c r="G23" t="n">
-        <v>55.83691547928336</v>
+        <v>312.3752147788292</v>
       </c>
       <c r="H23" t="n">
-        <v>55.83691547928336</v>
+        <v>55.8369154792833</v>
       </c>
       <c r="I23" t="n">
-        <v>127.036865730464</v>
+        <v>127.0368657304639</v>
       </c>
       <c r="J23" t="n">
-        <v>284.6836409739093</v>
+        <v>538.4174088069522</v>
       </c>
       <c r="K23" t="n">
-        <v>520.9552913531302</v>
+        <v>774.689059186173</v>
       </c>
       <c r="L23" t="n">
-        <v>1211.937120409262</v>
+        <v>1067.804934050074</v>
       </c>
       <c r="M23" t="n">
-        <v>1538.085008578049</v>
+        <v>1393.952822218861</v>
       </c>
       <c r="N23" t="n">
-        <v>1869.510310554526</v>
+        <v>1725.378124195338</v>
       </c>
       <c r="O23" t="n">
-        <v>2207.48770348969</v>
+        <v>2038.333638736631</v>
       </c>
       <c r="P23" t="n">
-        <v>2474.58799466896</v>
+        <v>2305.4339299159</v>
       </c>
       <c r="Q23" t="n">
-        <v>2675.169189680027</v>
+        <v>2506.015124926967</v>
       </c>
       <c r="R23" t="n">
-        <v>2791.845773964168</v>
+        <v>2791.845773964165</v>
       </c>
       <c r="S23" t="n">
-        <v>2764.562656335508</v>
+        <v>2791.845773964165</v>
       </c>
       <c r="T23" t="n">
-        <v>2565.974656961164</v>
+        <v>2791.845773964165</v>
       </c>
       <c r="U23" t="n">
-        <v>2320.087217639221</v>
+        <v>2545.958334642222</v>
       </c>
       <c r="V23" t="n">
-        <v>1970.653519729591</v>
+        <v>2196.524636732593</v>
       </c>
       <c r="W23" t="n">
-        <v>1970.653519729591</v>
+        <v>1950.204578552148</v>
       </c>
       <c r="X23" t="n">
-        <v>1711.741858680496</v>
+        <v>1544.245367288003</v>
       </c>
       <c r="Y23" t="n">
-        <v>1316.638987136693</v>
+        <v>1544.245367288003</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>551.2016689967194</v>
+        <v>551.2016689967195</v>
       </c>
       <c r="C24" t="n">
-        <v>444.7452078333617</v>
+        <v>444.7452078333618</v>
       </c>
       <c r="D24" t="n">
         <v>349.654918979915</v>
@@ -6059,16 +6059,16 @@
         <v>172.1506659230303</v>
       </c>
       <c r="G24" t="n">
-        <v>87.7795655126871</v>
+        <v>87.77956551268706</v>
       </c>
       <c r="H24" t="n">
-        <v>55.83691547928336</v>
+        <v>55.8369154792833</v>
       </c>
       <c r="I24" t="n">
-        <v>90.05365165075948</v>
+        <v>90.05365165075941</v>
       </c>
       <c r="J24" t="n">
-        <v>183.9469909972266</v>
+        <v>183.9469909972265</v>
       </c>
       <c r="K24" t="n">
         <v>344.4256630513968</v>
@@ -6089,31 +6089,31 @@
         <v>1496.718931529773</v>
       </c>
       <c r="Q24" t="n">
-        <v>1623.578025738007</v>
+        <v>1623.578025738008</v>
       </c>
       <c r="R24" t="n">
-        <v>1685.28148016392</v>
+        <v>1685.281480163921</v>
       </c>
       <c r="S24" t="n">
         <v>1640.660449563655</v>
       </c>
       <c r="T24" t="n">
-        <v>1514.568894439307</v>
+        <v>1514.568894439308</v>
       </c>
       <c r="U24" t="n">
-        <v>1338.299057263188</v>
+        <v>1338.299057263189</v>
       </c>
       <c r="V24" t="n">
         <v>1139.181539325188</v>
       </c>
       <c r="W24" t="n">
-        <v>953.8587850583817</v>
+        <v>953.858785058382</v>
       </c>
       <c r="X24" t="n">
-        <v>798.9913492972618</v>
+        <v>798.9913492972619</v>
       </c>
       <c r="Y24" t="n">
-        <v>672.5055700764825</v>
+        <v>672.5055700764826</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1008.639440058155</v>
+        <v>1008.639440058154</v>
       </c>
       <c r="C25" t="n">
-        <v>849.2609806979237</v>
+        <v>849.2609806979225</v>
       </c>
       <c r="D25" t="n">
-        <v>696.56624005599</v>
+        <v>696.5662400559889</v>
       </c>
       <c r="E25" t="n">
-        <v>539.9914884632708</v>
+        <v>539.9914884632699</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4676865815704</v>
+        <v>376.4676865815698</v>
       </c>
       <c r="G25" t="n">
-        <v>224.9097583506324</v>
+        <v>224.909758350632</v>
       </c>
       <c r="H25" t="n">
-        <v>105.7489498864918</v>
+        <v>105.7489498864916</v>
       </c>
       <c r="I25" t="n">
-        <v>55.83691547928336</v>
+        <v>55.8369154792833</v>
       </c>
       <c r="J25" t="n">
-        <v>114.7425791814665</v>
+        <v>201.3222643461563</v>
       </c>
       <c r="K25" t="n">
-        <v>211.5426797490247</v>
+        <v>572.88081948485</v>
       </c>
       <c r="L25" t="n">
-        <v>560.0503548541991</v>
+        <v>1114.961502871109</v>
       </c>
       <c r="M25" t="n">
-        <v>1150.138614373642</v>
+        <v>1245.565895209638</v>
       </c>
       <c r="N25" t="n">
-        <v>1719.896329335176</v>
+        <v>1551.703554470841</v>
       </c>
       <c r="O25" t="n">
-        <v>2257.331459908719</v>
+        <v>2089.138685044385</v>
       </c>
       <c r="P25" t="n">
-        <v>2705.607410056744</v>
+        <v>2537.41463519241</v>
       </c>
       <c r="Q25" t="n">
-        <v>2775.3746812874</v>
+        <v>2775.374681287397</v>
       </c>
       <c r="R25" t="n">
-        <v>2791.845773964168</v>
+        <v>2791.845773964165</v>
       </c>
       <c r="S25" t="n">
-        <v>2660.602487624945</v>
+        <v>2660.602487624943</v>
       </c>
       <c r="T25" t="n">
-        <v>2431.538515684895</v>
+        <v>2431.538515684893</v>
       </c>
       <c r="U25" t="n">
-        <v>2166.335135890182</v>
+        <v>2166.33513589018</v>
       </c>
       <c r="V25" t="n">
-        <v>1892.562879917156</v>
+        <v>1892.562879917154</v>
       </c>
       <c r="W25" t="n">
-        <v>1633.719727659991</v>
+        <v>1633.719727659989</v>
       </c>
       <c r="X25" t="n">
-        <v>1401.511225149947</v>
+        <v>1401.511225149945</v>
       </c>
       <c r="Y25" t="n">
-        <v>1187.274806620599</v>
+        <v>1187.274806620597</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2464.791279766202</v>
+        <v>1606.100465861622</v>
       </c>
       <c r="C26" t="n">
-        <v>2026.648806949625</v>
+        <v>1606.100465861622</v>
       </c>
       <c r="D26" t="n">
         <v>1590.739022124069</v>
@@ -6253,25 +6253,25 @@
         <v>2993.630245747996</v>
       </c>
       <c r="S26" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="T26" t="n">
-        <v>2953.163875962794</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U26" t="n">
-        <v>2953.163875962794</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="V26" t="n">
-        <v>2590.54692589662</v>
+        <v>2419.242044150935</v>
       </c>
       <c r="W26" t="n">
-        <v>2590.54692589662</v>
+        <v>2014.386589561969</v>
       </c>
       <c r="X26" t="n">
-        <v>2590.54692589662</v>
+        <v>2014.386589561969</v>
       </c>
       <c r="Y26" t="n">
-        <v>2590.54692589662</v>
+        <v>1606.100465861622</v>
       </c>
     </row>
     <row r="27">
@@ -6363,16 +6363,16 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728605</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D28" t="n">
-        <v>766.5181902743832</v>
+        <v>766.5181902743841</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251204</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868766</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G28" t="n">
         <v>255.311952099396</v>
@@ -6384,25 +6384,25 @@
         <v>59.87260491495993</v>
       </c>
       <c r="J28" t="n">
-        <v>195.7024820834171</v>
+        <v>139.4866804296565</v>
       </c>
       <c r="K28" t="n">
-        <v>567.2610372221109</v>
+        <v>511.0452355683503</v>
       </c>
       <c r="L28" t="n">
-        <v>1109.34172060837</v>
+        <v>1053.125918954609</v>
       </c>
       <c r="M28" t="n">
-        <v>1699.429980127812</v>
+        <v>1183.730311293139</v>
       </c>
       <c r="N28" t="n">
-        <v>2269.187695089346</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O28" t="n">
-        <v>2806.62282566289</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P28" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976241</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6414,22 +6414,22 @@
         <v>2849.203707252231</v>
       </c>
       <c r="T28" t="n">
-        <v>2606.956483155637</v>
+        <v>2606.956483155638</v>
       </c>
       <c r="U28" t="n">
         <v>2328.56985120438</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.61434307481</v>
+        <v>2041.614343074811</v>
       </c>
       <c r="W28" t="n">
-        <v>1769.587938661102</v>
+        <v>1769.587938661103</v>
       </c>
       <c r="X28" t="n">
         <v>1524.196183994515</v>
       </c>
       <c r="Y28" t="n">
-        <v>1296.776513308623</v>
+        <v>1296.776513308624</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2464.791279766202</v>
+        <v>1359.657252164034</v>
       </c>
       <c r="C29" t="n">
-        <v>2026.648806949625</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.739022124069</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E29" t="n">
-        <v>1156.964277282364</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F29" t="n">
-        <v>729.0968476915723</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="G29" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="H29" t="n">
         <v>59.87260491495993</v>
@@ -6463,25 +6463,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>723.9740178625037</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K29" t="n">
-        <v>960.2456682417247</v>
+        <v>524.9909807888067</v>
       </c>
       <c r="L29" t="n">
-        <v>1253.361543105625</v>
+        <v>818.1068556527074</v>
       </c>
       <c r="M29" t="n">
-        <v>1579.509431274412</v>
+        <v>1355.393174909598</v>
       </c>
       <c r="N29" t="n">
-        <v>1910.93473325089</v>
+        <v>2096.316660732227</v>
       </c>
       <c r="O29" t="n">
-        <v>2223.890247792182</v>
+        <v>2409.272175273519</v>
       </c>
       <c r="P29" t="n">
-        <v>2490.990538971451</v>
+        <v>2676.372466452789</v>
       </c>
       <c r="Q29" t="n">
         <v>2876.953661463856</v>
@@ -6496,19 +6496,19 @@
         <v>2781.858994217109</v>
       </c>
       <c r="U29" t="n">
-        <v>2522.788302738623</v>
+        <v>2613.385409769977</v>
       </c>
       <c r="V29" t="n">
-        <v>2522.788302738623</v>
+        <v>2613.385409769977</v>
       </c>
       <c r="W29" t="n">
-        <v>2522.788302738623</v>
+        <v>2613.385409769977</v>
       </c>
       <c r="X29" t="n">
-        <v>2522.788302738623</v>
+        <v>2194.242946349288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2522.788302738623</v>
+        <v>1785.956822648941</v>
       </c>
     </row>
     <row r="30">
@@ -6600,19 +6600,19 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728608</v>
       </c>
       <c r="D31" t="n">
-        <v>766.5181902743841</v>
+        <v>766.5181902743834</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251206</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868768</v>
       </c>
       <c r="G31" t="n">
-        <v>255.3119520993959</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H31" t="n">
         <v>122.9678914787119</v>
@@ -6621,25 +6621,25 @@
         <v>59.87260491495993</v>
       </c>
       <c r="J31" t="n">
-        <v>122.9540426842114</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K31" t="n">
-        <v>219.7541432517696</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L31" t="n">
-        <v>761.8348266380285</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M31" t="n">
-        <v>1351.923086157471</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N31" t="n">
-        <v>1921.680801119005</v>
+        <v>1819.359299606849</v>
       </c>
       <c r="O31" t="n">
-        <v>2459.115931692548</v>
+        <v>2356.794430180392</v>
       </c>
       <c r="P31" t="n">
-        <v>2907.391881840573</v>
+        <v>2805.070380328417</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
@@ -6651,13 +6651,13 @@
         <v>2849.203707252231</v>
       </c>
       <c r="T31" t="n">
-        <v>2606.956483155638</v>
+        <v>2606.956483155637</v>
       </c>
       <c r="U31" t="n">
         <v>2328.56985120438</v>
       </c>
       <c r="V31" t="n">
-        <v>2041.614343074811</v>
+        <v>2041.61434307481</v>
       </c>
       <c r="W31" t="n">
         <v>1769.587938661102</v>
@@ -6666,7 +6666,7 @@
         <v>1524.196183994515</v>
       </c>
       <c r="Y31" t="n">
-        <v>1296.776513308624</v>
+        <v>1296.776513308623</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2028.881494940646</v>
+        <v>1795.567036989589</v>
       </c>
       <c r="C32" t="n">
-        <v>1590.739022124069</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.739022124069</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E32" t="n">
-        <v>1156.964277282364</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F32" t="n">
-        <v>729.0968476915723</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="G32" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="H32" t="n">
         <v>59.87260491495993</v>
@@ -6700,25 +6700,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>524.9909807888067</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L32" t="n">
-        <v>818.1068556527074</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M32" t="n">
-        <v>1144.254743821495</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N32" t="n">
-        <v>1475.680045797972</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O32" t="n">
-        <v>1788.635560339265</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P32" t="n">
-        <v>2507.218401699732</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q32" t="n">
         <v>2707.799596710799</v>
@@ -6739,13 +6739,13 @@
         <v>2993.630245747996</v>
       </c>
       <c r="W32" t="n">
-        <v>2993.630245747996</v>
+        <v>2588.77479115903</v>
       </c>
       <c r="X32" t="n">
-        <v>2863.4671891259</v>
+        <v>2221.866607474497</v>
       </c>
       <c r="Y32" t="n">
-        <v>2455.181065425554</v>
+        <v>2221.866607474497</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>59.87260491495993</v>
       </c>
       <c r="I33" t="n">
-        <v>94.08934108643605</v>
+        <v>94.08934108643594</v>
       </c>
       <c r="J33" t="n">
         <v>187.9826804329031</v>
@@ -6837,16 +6837,16 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728605</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D34" t="n">
-        <v>766.5181902743832</v>
+        <v>766.5181902743841</v>
       </c>
       <c r="E34" t="n">
-        <v>596.7601865251214</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F34" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G34" t="n">
         <v>255.311952099396</v>
@@ -6858,25 +6858,25 @@
         <v>59.87260491495993</v>
       </c>
       <c r="J34" t="n">
-        <v>122.9540426842104</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>219.7541432517687</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L34" t="n">
-        <v>761.8348266380276</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M34" t="n">
-        <v>1351.92308615747</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N34" t="n">
-        <v>1921.680801119004</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O34" t="n">
-        <v>2459.115931692548</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P34" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976241</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
@@ -6885,25 +6885,25 @@
         <v>2993.630245747996</v>
       </c>
       <c r="S34" t="n">
-        <v>2849.203707252231</v>
+        <v>2849.203707252232</v>
       </c>
       <c r="T34" t="n">
-        <v>2606.956483155637</v>
+        <v>2606.956483155638</v>
       </c>
       <c r="U34" t="n">
-        <v>2328.56985120438</v>
+        <v>2328.569851204381</v>
       </c>
       <c r="V34" t="n">
-        <v>2041.61434307481</v>
+        <v>2041.614343074811</v>
       </c>
       <c r="W34" t="n">
-        <v>1769.587938661102</v>
+        <v>1769.587938661103</v>
       </c>
       <c r="X34" t="n">
         <v>1524.196183994515</v>
       </c>
       <c r="Y34" t="n">
-        <v>1296.776513308623</v>
+        <v>1296.776513308624</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1624.755105488881</v>
+        <v>1474.419173756937</v>
       </c>
       <c r="C35" t="n">
-        <v>1186.612632672305</v>
+        <v>1036.276700940361</v>
       </c>
       <c r="D35" t="n">
-        <v>750.7028478467491</v>
+        <v>1036.276700940361</v>
       </c>
       <c r="E35" t="n">
-        <v>316.9281030050443</v>
+        <v>602.5019560986557</v>
       </c>
       <c r="F35" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>2051.054675973789</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W35" t="n">
-        <v>2051.054675973789</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X35" t="n">
-        <v>2051.054675973789</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y35" t="n">
-        <v>2051.054675973789</v>
+        <v>1900.718744241845</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.0817647851416</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C37" t="n">
-        <v>443.5200532683665</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D37" t="n">
-        <v>277.6420604698892</v>
+        <v>299.093514772602</v>
       </c>
       <c r="E37" t="n">
-        <v>107.8840567206265</v>
+        <v>299.093514772602</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895473</v>
+        <v>122.3864607343582</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895473</v>
+        <v>122.3864607343582</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>116.6355901513737</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>488.1941452900674</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M37" t="n">
-        <v>1412.355695376305</v>
+        <v>1160.879221014856</v>
       </c>
       <c r="N37" t="n">
-        <v>1539.854607180195</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041287</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1748.628930102402</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="C38" t="n">
-        <v>1310.486457285825</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="D38" t="n">
-        <v>874.5766724602698</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E38" t="n">
-        <v>874.5766724602698</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F38" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
         <v>805.4408022867025</v>
@@ -7207,19 +7207,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U38" t="n">
-        <v>2111.245880168575</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V38" t="n">
-        <v>1748.628930102402</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W38" t="n">
-        <v>1748.628930102402</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="X38" t="n">
-        <v>1748.628930102402</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="Y38" t="n">
-        <v>1748.628930102402</v>
+        <v>1578.072968758064</v>
       </c>
     </row>
     <row r="39">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.1113136517137</v>
+        <v>989.0733853696729</v>
       </c>
       <c r="C40" t="n">
-        <v>559.5496021349386</v>
+        <v>816.5116738528978</v>
       </c>
       <c r="D40" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>295.9524490360518</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L40" t="n">
-        <v>419.8232506543497</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M40" t="n">
-        <v>550.4276429928792</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954413</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527957</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675982</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2234.109902217715</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1955.723270266458</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1668.767762136888</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W40" t="n">
-        <v>1396.74135772318</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="X40" t="n">
-        <v>1151.349603056593</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.9299323707007</v>
+        <v>1180.89200408866</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1186.612632672305</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C41" t="n">
-        <v>1186.612632672305</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D41" t="n">
-        <v>750.7028478467491</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E41" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
         <v>316.9281030050443</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2148.556325916849</v>
+        <v>1892.189322681054</v>
       </c>
       <c r="V41" t="n">
-        <v>2148.556325916849</v>
+        <v>1529.572372614881</v>
       </c>
       <c r="W41" t="n">
-        <v>2021.198326857559</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="X41" t="n">
-        <v>2021.198326857559</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y41" t="n">
-        <v>1612.912203157212</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.081764785142</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C43" t="n">
-        <v>443.520053268367</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6547859746801</v>
+        <v>299.093514772602</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>299.093514772602</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>122.3864607343582</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>122.3864607343582</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895474</v>
@@ -7569,19 +7569,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L43" t="n">
-        <v>862.0820538119945</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M43" t="n">
-        <v>992.6864461505238</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O43" t="n">
         <v>1657.620488527957</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1744.26120212753</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>1744.26120212753</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>1308.351417301975</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
         <v>47.20655154895474</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>1744.26120212753</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>1744.26120212753</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X44" t="n">
-        <v>1744.26120212753</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y44" t="n">
-        <v>1744.26120212753</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="45">
@@ -7785,16 +7785,16 @@
         <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>443.520053268367</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D46" t="n">
-        <v>381.7057356856991</v>
+        <v>450.2037719866647</v>
       </c>
       <c r="E46" t="n">
-        <v>211.9477319364363</v>
+        <v>280.445768237402</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>103.7387141991582</v>
       </c>
       <c r="G46" t="n">
         <v>47.20655154895474</v>
@@ -7806,25 +7806,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -8856,16 +8856,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>253.9135309266337</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9102,7 +9102,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>156.7304232042869</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>177.1920849464598</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>142.1674636999937</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,13 +9561,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>6.525705103702933</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9576,10 +9576,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.2967351848919</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>401.8848022143745</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>25.2746246402744</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9795,19 +9795,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>226.9059328150268</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>180.4431792498117</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>16.39178053361641</v>
+        <v>16.39178053361638</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>77.70122572350913</v>
+        <v>20.91758768940753</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10041,7 +10041,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,10 +10050,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>213.2711425132354</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>413.6345291375269</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>187.2544722033709</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.217953603099296</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>103.3550520324807</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>456.0429799810079</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>16.39178053361638</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>4.217953603098394</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>10.62967161639979</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10752,19 +10752,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>6.525705103702933</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>175.7179764032072</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>264.6463123855408</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>416.3855777583095</v>
       </c>
       <c r="F11" t="n">
-        <v>410.5373356599063</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G11" t="n">
-        <v>382.4562447723395</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>253.9729163065506</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.01028645237291</v>
+        <v>27.01028645237276</v>
       </c>
       <c r="T11" t="n">
-        <v>196.6021193806008</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>243.4285649287231</v>
+        <v>243.4285649287229</v>
       </c>
       <c r="V11" t="n">
-        <v>345.9393609305337</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>401.8996191515043</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>153.4971362958146</v>
+        <v>69.78776813819798</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>155.009004076792</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>121.3459863417742</v>
       </c>
       <c r="H13" t="n">
-        <v>117.9692003794992</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I13" t="n">
-        <v>49.41291406313635</v>
+        <v>49.4129140631362</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>96.26783574081334</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>128.8388848954827</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>420.7096284534329</v>
+        <v>187.0267678707604</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>416.3855777583097</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>382.4562447723395</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H14" t="n">
-        <v>253.9729163065506</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.01028645237292</v>
+        <v>27.01028645237276</v>
       </c>
       <c r="T14" t="n">
-        <v>196.6021193806008</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U14" t="n">
-        <v>243.4285649287231</v>
+        <v>243.4285649287229</v>
       </c>
       <c r="V14" t="n">
-        <v>345.9393609305337</v>
+        <v>345.9393609305335</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>101.2344908689765</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>150.0423489486287</v>
+        <v>121.3459863417738</v>
       </c>
       <c r="H16" t="n">
-        <v>117.9692003794992</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I16" t="n">
-        <v>49.41291406313636</v>
+        <v>49.4129140631362</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C17" t="n">
-        <v>300.980813204607</v>
+        <v>36.21626120407979</v>
       </c>
       <c r="D17" t="n">
-        <v>418.4992673423218</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>416.3855777583097</v>
+        <v>416.3855777583095</v>
       </c>
       <c r="F17" t="n">
-        <v>410.5373356599063</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>27.01028645237292</v>
+        <v>27.01028645237276</v>
       </c>
       <c r="T17" t="n">
-        <v>196.6021193806008</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>243.4285649287231</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>345.9393609305335</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X17" t="n">
-        <v>401.8996191515043</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E19" t="n">
-        <v>138.8011900178583</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F19" t="n">
-        <v>161.8885638628832</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>63.06924288479622</v>
       </c>
       <c r="H19" t="n">
-        <v>117.9692003794992</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>49.4129140631362</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.9851551450806</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C20" t="n">
-        <v>420.7096284534329</v>
+        <v>69.07478975485583</v>
       </c>
       <c r="D20" t="n">
-        <v>418.4992673423218</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>416.3855777583097</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.5373356599063</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>27.01028645237292</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>196.6021193806008</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>345.9393609305335</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X20" t="n">
-        <v>116.614213686321</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>101.2344908689765</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>150.0423489486287</v>
+        <v>100.1090465820891</v>
       </c>
       <c r="H22" t="n">
-        <v>117.9692003794992</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I22" t="n">
-        <v>49.41291406313636</v>
+        <v>49.4129140631362</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E23" t="n">
-        <v>416.3855777583097</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.5373356599063</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G23" t="n">
-        <v>382.4562447723395</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>253.9729163065506</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>27.01028645237276</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>387.7554804080989</v>
+        <v>143.8986228094588</v>
       </c>
       <c r="X23" t="n">
-        <v>145.5770747128998</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="24">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>297.5384851109445</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>416.3428576771228</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>364.6195220373616</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>89.69113596104097</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>286.0896127306073</v>
+        <v>51.71193693879519</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>269.353969197998</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -25213,13 +25213,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>52.81060810630373</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>114.8692533779063</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>56.59250992092787</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25393,13 +25393,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>9.88910425733107</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>241.8456025695139</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>102.1862712954188</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>114.8692533779057</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>42.73835744761482</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>274.7224809743797</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>109.9025982497426</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>56.59250992092787</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>215.2185925777869</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>294.6492154448413</v>
       </c>
     </row>
     <row r="45">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>103.0230384636513</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>107.1269275599054</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>294134.0693365763</v>
+        <v>294134.0693365764</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>294134.0693365763</v>
+        <v>294134.0693365764</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>294134.0693365763</v>
+        <v>294134.0693365764</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>294134.0693365763</v>
+        <v>294134.0693365764</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>353150.0513838234</v>
+        <v>353150.0513838233</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>278258.5835209815</v>
+        <v>278258.5835209816</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>278258.5835209815</v>
+        <v>278258.5835209816</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>278258.5835209816</v>
+        <v>278258.5835209815</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>484130.7854230572</v>
+      </c>
+      <c r="C2" t="n">
         <v>484130.7854230573</v>
       </c>
-      <c r="C2" t="n">
-        <v>484130.7854230571</v>
-      </c>
       <c r="D2" t="n">
-        <v>484130.785423057</v>
+        <v>484130.7854230572</v>
       </c>
       <c r="E2" t="n">
-        <v>308800.2940330879</v>
+        <v>308800.294033088</v>
       </c>
       <c r="F2" t="n">
         <v>308800.2940330879</v>
       </c>
       <c r="G2" t="n">
-        <v>308800.2940330878</v>
+        <v>308800.294033088</v>
       </c>
       <c r="H2" t="n">
-        <v>308800.2940330881</v>
+        <v>308800.294033088</v>
       </c>
       <c r="I2" t="n">
-        <v>348920.381619847</v>
+        <v>348920.3816198469</v>
       </c>
       <c r="J2" t="n">
         <v>349881.3576475701</v>
@@ -26343,19 +26343,19 @@
         <v>349881.3576475702</v>
       </c>
       <c r="L2" t="n">
-        <v>349881.35764757</v>
+        <v>349881.3576475701</v>
       </c>
       <c r="M2" t="n">
         <v>291000.506906512</v>
       </c>
       <c r="N2" t="n">
-        <v>291000.5069065121</v>
+        <v>291000.5069065119</v>
       </c>
       <c r="O2" t="n">
         <v>291000.5069065121</v>
       </c>
       <c r="P2" t="n">
-        <v>291000.5069065121</v>
+        <v>291000.506906512</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>561576.3366986582</v>
+        <v>561576.3366986583</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28687.43758396144</v>
+        <v>28687.43758396125</v>
       </c>
       <c r="J3" t="n">
-        <v>13198.92408385203</v>
+        <v>13198.92408385221</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107595.378864797</v>
+        <v>107595.3788647969</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>30168.63856793402</v>
+        <v>30168.63856793414</v>
       </c>
       <c r="F4" t="n">
-        <v>30168.63856793402</v>
+        <v>30168.63856793414</v>
       </c>
       <c r="G4" t="n">
-        <v>30168.63856793402</v>
+        <v>30168.63856793414</v>
       </c>
       <c r="H4" t="n">
-        <v>30168.63856793403</v>
+        <v>30168.63856793414</v>
       </c>
       <c r="I4" t="n">
         <v>53468.22036949157</v>
       </c>
       <c r="J4" t="n">
-        <v>53380.18087258612</v>
+        <v>53380.18087258613</v>
       </c>
       <c r="K4" t="n">
+        <v>53380.18087258611</v>
+      </c>
+      <c r="L4" t="n">
         <v>53380.18087258613</v>
-      </c>
-      <c r="L4" t="n">
-        <v>53380.1808725861</v>
       </c>
       <c r="M4" t="n">
         <v>19185.36025012662</v>
       </c>
       <c r="N4" t="n">
-        <v>19185.36025012663</v>
+        <v>19185.36025012662</v>
       </c>
       <c r="O4" t="n">
         <v>19185.36025012663</v>
       </c>
       <c r="P4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012663</v>
       </c>
     </row>
     <row r="5">
@@ -26481,16 +26481,16 @@
         <v>47148.30100693079</v>
       </c>
       <c r="F5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.30100693081</v>
       </c>
       <c r="G5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.30100693081</v>
       </c>
       <c r="H5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.30100693081</v>
       </c>
       <c r="I5" t="n">
-        <v>53707.37759398054</v>
+        <v>53707.37759398051</v>
       </c>
       <c r="J5" t="n">
         <v>55677.28176780177</v>
@@ -26502,7 +26502,7 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151772.4691112245</v>
+        <v>151740.5623937227</v>
       </c>
       <c r="C6" t="n">
-        <v>151772.4691112243</v>
+        <v>151740.5623937228</v>
       </c>
       <c r="D6" t="n">
-        <v>151772.4691112242</v>
+        <v>151740.5623937228</v>
       </c>
       <c r="E6" t="n">
-        <v>-330092.9822404351</v>
+        <v>-330598.7551508826</v>
       </c>
       <c r="F6" t="n">
-        <v>231483.3544582231</v>
+        <v>230977.5815477755</v>
       </c>
       <c r="G6" t="n">
-        <v>231483.354458223</v>
+        <v>230977.5815477756</v>
       </c>
       <c r="H6" t="n">
-        <v>231483.3544582233</v>
+        <v>230977.5815477756</v>
       </c>
       <c r="I6" t="n">
-        <v>213057.3460724134</v>
+        <v>212660.0058311195</v>
       </c>
       <c r="J6" t="n">
-        <v>227624.9709233303</v>
+        <v>227230.2279145434</v>
       </c>
       <c r="K6" t="n">
-        <v>240823.8950071823</v>
+        <v>240429.1519983957</v>
       </c>
       <c r="L6" t="n">
-        <v>240823.8950071822</v>
+        <v>240429.1519983955</v>
       </c>
       <c r="M6" t="n">
-        <v>118168.6865819505</v>
+        <v>117614.8061387287</v>
       </c>
       <c r="N6" t="n">
-        <v>225764.0654467477</v>
+        <v>225210.1850035255</v>
       </c>
       <c r="O6" t="n">
-        <v>225764.0654467476</v>
+        <v>225210.1850035258</v>
       </c>
       <c r="P6" t="n">
-        <v>225764.0654467477</v>
+        <v>225210.1850035256</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="F2" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="G2" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="H2" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="I2" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619342</v>
@@ -26810,7 +26810,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>697.9614434910419</v>
+        <v>697.9614434910412</v>
       </c>
       <c r="J4" t="n">
         <v>748.4075614369991</v>
@@ -26822,7 +26822,7 @@
         <v>748.4075614369991</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619342</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>107.8795491291077</v>
+        <v>107.879549129107</v>
       </c>
       <c r="J4" t="n">
-        <v>50.44611794595721</v>
+        <v>50.44611794595789</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>431.7562272868694</v>
+        <v>431.7562272868691</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="C11" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="D11" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="E11" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="F11" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="G11" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="H11" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="T11" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="U11" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="V11" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="W11" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="X11" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="C13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="D13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="E13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="F13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="G13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="H13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="I13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28298,25 +28298,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="T13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="U13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="V13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="W13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="X13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="C14" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="D14" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="E14" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="F14" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="G14" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="H14" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="T14" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="U14" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="V14" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="W14" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="X14" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="C16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="D16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="E16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="F16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="G16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="H16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="I16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28535,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="T16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="U16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="V16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="W16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="X16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="C17" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="D17" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="E17" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="F17" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="G17" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="H17" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="T17" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="U17" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="V17" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="W17" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="X17" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="C19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="D19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="E19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="F19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="G19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="H19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="I19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="T19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="U19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="V19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="W19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="X19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="C20" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="D20" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="E20" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="F20" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="G20" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="H20" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="T20" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="U20" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="V20" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="W20" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="X20" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="C22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="D22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="E22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="F22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="G22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="H22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="I22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29009,25 +29009,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="T22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="U22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="V22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="W22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="X22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="C23" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="D23" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="E23" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="F23" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="G23" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="H23" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="T23" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="U23" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="V23" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="W23" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="X23" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="C25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="D25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="E25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="F25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="G25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="H25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="I25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29246,25 +29246,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="T25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="U25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="V25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="W25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="X25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.05141963497808</v>
+        <v>13.05141963497823</v>
       </c>
     </row>
     <row r="26">
@@ -32074,7 +32074,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -32329,7 +32329,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917233</v>
@@ -32809,7 +32809,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233624</v>
@@ -33037,7 +33037,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
@@ -33280,10 +33280,10 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.691212691723</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233624</v>
@@ -33499,7 +33499,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562328</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33748,7 +33748,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
@@ -34146,7 +34146,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548414</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -34465,7 +34465,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -35409,7 +35409,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35570,22 +35570,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>382.7003105265221</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q13" t="n">
         <v>70.4719911420766</v>
@@ -35646,13 +35646,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -35816,13 +35816,13 @@
         <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>258.5173486362903</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
         <v>70.4719911420766</v>
@@ -35901,13 +35901,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36044,25 +36044,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>309.1157135712369</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>261.1228994048035</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36123,7 +36123,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062841</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
@@ -36135,10 +36135,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36281,25 +36281,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
-        <v>104.3035844648728</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>139.7481869072826</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,13 +36357,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>415.5359020974628</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>697.9614434910419</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,7 +36372,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>341.3913059951155</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
@@ -36381,7 +36381,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36457,7 +36457,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>352.0279546516914</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M25" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954892</v>
+        <v>309.2299588497001</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
@@ -36536,7 +36536,7 @@
         <v>452.8039900485101</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36694,7 +36694,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
         <v>62.32672164233622</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>137.2018961297547</v>
+        <v>80.41825809565312</v>
       </c>
       <c r="K28" t="n">
         <v>375.3116718572664</v>
@@ -36761,19 +36761,19 @@
         <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36831,28 +36831,28 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>542.7134537948388</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>748.407561436999</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>389.8617398913179</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -36928,10 +36928,10 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.691212691723</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.71862400934488</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>452.8039900485101</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>173.8270431745573</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,28 +37068,28 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>725.8412538994614</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>218.9990482215635</v>
       </c>
       <c r="R32" t="n">
         <v>288.7178273103004</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562328</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>63.71862400934397</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447062</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37329,7 +37329,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>70.13034202264538</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
@@ -37472,19 +37472,19 @@
         <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,13 +37542,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>104.3035844648728</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
@@ -37721,7 +37721,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37794,16 +37794,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548414</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>300.8399982398718</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>393.4330919854292</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409513</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
